--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/GameGlobalBuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/GameGlobalBuffCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC1C1DA-7872-46A3-A4AB-354DB1C44586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB8FDE3-D992-4315-9673-B3BC743E5FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CoinAdd_Attack_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>list,GlobalBuffActionCall</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -192,34 +188,6 @@
     <t>NearUnitOnHit</t>
   </si>
   <si>
-    <t>NearUnitOnRemoved</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_PutTower</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_ScaleTower</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_ReclaimTower</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_UpgradeTower</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense_TowerKillMonster</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CallAoe_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>GamePlayTowerDefense_Status_PutHomeBegin</t>
   </si>
   <si>
@@ -251,10 +219,6 @@
   </si>
   <si>
     <t>GamePlayTowerDefense_Status_GameEnd</t>
-  </si>
-  <si>
-    <t>PlayerGlobalBuff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tickTime</t>
@@ -267,13 +231,97 @@
   <si>
     <t>工作周期(秒)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_1</t>
+  </si>
+  <si>
+    <t>CoinAdd_Attack_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_2</t>
+  </si>
+  <si>
+    <t>CallAoe_1</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_3</t>
+  </si>
+  <si>
+    <t>NearUnitOnRemoved</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_4</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_PutTower</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_5</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_ScaleTower</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_6</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_ReclaimTower</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_7</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_UpgradeTower</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_8</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense_TowerKillMonster</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_9</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_10</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_11</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_12</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_13</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_14</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_15</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_16</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_17</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_18</t>
+  </si>
+  <si>
+    <t>PlayerGlobalBuff_19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,20 +357,6 @@
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -415,7 +449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -423,12 +457,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,7 +753,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -758,15 +787,15 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -793,7 +822,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>17</v>
@@ -864,15 +893,15 @@
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
@@ -917,36 +946,36 @@
       <c r="Z5"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q6"/>
@@ -960,406 +989,384 @@
       <c r="Y6"/>
       <c r="Z6"/>
     </row>
-    <row r="7" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
-        <v>PlayerGlobalBuff_1</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="H7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9" t="str">
-        <f t="shared" ref="D8:D25" si="0">B8&amp;"_"&amp;C8</f>
-        <v>PlayerGlobalBuff_2</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="H8" s="10" t="s">
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_3</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="H9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="9">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_4</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="9">
-        <v>5</v>
-      </c>
-      <c r="D11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_5</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="9">
-        <v>6</v>
-      </c>
-      <c r="D12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_6</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="9">
-        <v>7</v>
-      </c>
-      <c r="D13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_7</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="9">
-        <v>8</v>
-      </c>
-      <c r="D14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_8</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="9">
-        <v>9</v>
-      </c>
-      <c r="D15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_9</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="9">
-        <v>10</v>
-      </c>
-      <c r="D16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_10</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="9">
-        <v>11</v>
-      </c>
-      <c r="D17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_11</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="9">
-        <v>12</v>
-      </c>
-      <c r="D18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_12</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="9">
-        <v>13</v>
-      </c>
-      <c r="D19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_13</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="9">
-        <v>14</v>
-      </c>
-      <c r="D20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_14</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="9">
-        <v>15</v>
-      </c>
-      <c r="D21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_15</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="9">
-        <v>16</v>
-      </c>
-      <c r="D22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_16</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="9">
-        <v>17</v>
-      </c>
-      <c r="D23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_17</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="9">
-        <v>18</v>
-      </c>
-      <c r="D24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_18</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="9">
-        <v>19</v>
-      </c>
-      <c r="D25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>PlayerGlobalBuff_19</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>34</v>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/GameGlobalBuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/GameGlobalBuffCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1206AF5-2220-4F7A-930B-5F7F4D9A4627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BE67A3-A932-4D9F-8E35-2FE9D94FBB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -235,9 +224,6 @@
     <t>GameGlobalBuff_BaseRegen_2</t>
   </si>
   <si>
-    <t>GameGlobalBuff_BaseRegen_3</t>
-  </si>
-  <si>
     <t>TriggerImmediatelyNoParam;GamePlay_Status_GameWaitForStart</t>
   </si>
   <si>
@@ -314,10 +300,6 @@
   </si>
   <si>
     <t>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -468,14 +450,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -754,31 +736,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="45.77734375" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="45.75" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="40.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,12 +784,12 @@
       <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -819,7 +801,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -854,7 +836,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -878,12 +860,12 @@
       <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -895,7 +877,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -924,7 +906,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -971,7 +953,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
@@ -983,16 +965,16 @@
         <v>GameGlobalBuff_1</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>43</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
@@ -1004,16 +986,16 @@
         <v>GameGlobalBuff_2</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1025,16 +1007,16 @@
         <v>GameGlobalBuff_3</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1046,16 +1028,16 @@
         <v>GameGlobalBuff_4</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1067,16 +1049,16 @@
         <v>GameGlobalBuff_5</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1088,16 +1070,16 @@
         <v>GameGlobalBuff_6</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1109,16 +1091,16 @@
         <v>GameGlobalBuff_7</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1130,16 +1112,16 @@
         <v>GameGlobalBuff_8</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1151,16 +1133,16 @@
         <v>GameGlobalBuff_9</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1172,16 +1154,16 @@
         <v>GameGlobalBuff_10</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1193,16 +1175,16 @@
         <v>GameGlobalBuff_11</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1214,16 +1196,16 @@
         <v>GameGlobalBuff_12</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
@@ -1235,16 +1217,16 @@
         <v>GameGlobalBuff_13</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>26</v>
       </c>
@@ -1256,16 +1238,16 @@
         <v>GameGlobalBuff_14</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1277,16 +1259,16 @@
         <v>GameGlobalBuff_15</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1298,16 +1280,16 @@
         <v>GameGlobalBuff_16</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1301,7 @@
         <v>GameGlobalBuff_17</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1328,7 +1310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
@@ -1340,7 +1322,7 @@
         <v>GameGlobalBuff_18</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1349,92 +1331,81 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D25" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D27" s="9" t="s">
         <v>37</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D28" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D29" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D30" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D31" s="9" t="s">
         <v>41</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>67</v>
+        <v>42</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/GameGlobalBuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/GameGlobalBuffCfg.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BE67A3-A932-4D9F-8E35-2FE9D94FBB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26851A8-8CB7-49A4-961A-9178156DC989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -173,14 +184,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actionCondition1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionCondition2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>触发条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -300,6 +303,14 @@
   </si>
   <si>
     <t>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigCondition1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -742,25 +753,25 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="45.75" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="45.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -785,7 +796,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
@@ -801,7 +812,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -814,10 +825,10 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>15</v>
@@ -836,7 +847,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -861,7 +872,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -877,7 +888,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -906,7 +917,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -931,10 +942,10 @@
         <v>19</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>16</v>
@@ -953,7 +964,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
@@ -965,16 +976,16 @@
         <v>GameGlobalBuff_1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
@@ -986,16 +997,16 @@
         <v>GameGlobalBuff_2</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1007,16 +1018,16 @@
         <v>GameGlobalBuff_3</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
@@ -1028,16 +1039,16 @@
         <v>GameGlobalBuff_4</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1049,16 +1060,16 @@
         <v>GameGlobalBuff_5</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1070,16 +1081,16 @@
         <v>GameGlobalBuff_6</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1091,16 +1102,16 @@
         <v>GameGlobalBuff_7</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1112,16 +1123,16 @@
         <v>GameGlobalBuff_8</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1133,16 +1144,16 @@
         <v>GameGlobalBuff_9</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1154,16 +1165,16 @@
         <v>GameGlobalBuff_10</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1175,16 +1186,16 @@
         <v>GameGlobalBuff_11</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1196,16 +1207,16 @@
         <v>GameGlobalBuff_12</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
@@ -1217,16 +1228,16 @@
         <v>GameGlobalBuff_13</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>26</v>
       </c>
@@ -1238,16 +1249,16 @@
         <v>GameGlobalBuff_14</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1259,16 +1270,16 @@
         <v>GameGlobalBuff_15</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1280,16 +1291,16 @@
         <v>GameGlobalBuff_16</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1301,16 +1312,16 @@
         <v>GameGlobalBuff_17</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
@@ -1322,90 +1333,90 @@
         <v>GameGlobalBuff_18</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="9" t="s">
+      <c r="J26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="10" t="s">
+      <c r="J27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="9" t="s">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="10" t="s">
+      <c r="J28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="9" t="s">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="10" t="s">
+      <c r="J29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="9" t="s">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="10" t="s">
+      <c r="J30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D29" s="9" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="10" t="s">
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="10" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/GameGlobalBuffCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GlobalBuffConfig/GameGlobalBuffCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GlobalBuffConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26851A8-8CB7-49A4-961A-9178156DC989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A92CEED-98F7-476D-935F-12F8DFD8A002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>##var</t>
   </si>
@@ -136,9 +125,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>action_id</t>
-  </si>
-  <si>
     <t>触发事件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -180,10 +166,6 @@
     <t>buff优先级(越小越低)</t>
   </si>
   <si>
-    <t>GameGlobalBuff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>触发条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -215,9 +197,6 @@
     <t>GameGlobalBuff_BaseHealth_2</t>
   </si>
   <si>
-    <t>GameGlobalBuff_BaseHealth_3</t>
-  </si>
-  <si>
     <t>GameGlobalBuff_BaseRegen_0</t>
   </si>
   <si>
@@ -290,10 +269,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ChgGamePlayNumeric_AddHomeMaxHp_BaseHealth_3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ChgGamePlayNumeric_AddHomeCurHp_BaseRegen_0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -311,6 +286,116 @@
   </si>
   <si>
     <t>trigCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateGlobalUnit_TestProps</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateGlobalUnit_TestWeather_TeamWildMonster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateGlobalUnit_TestWeather_TeamMonster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateGlobalUnit_TestWeather_TeamGlobal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试天气(TeamGlobal)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试天气(TeamMonster)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试天气(TeamWildMonster)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionIds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerImmediatelyNoParam;GamePlay_Status_LoadMeshFinished</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameGlobalBuff_1</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_2</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_3</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_4</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_5</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_6</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_7</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_8</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_9</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_10</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_11</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_12</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_13</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_14</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_15</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_16</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_17</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_18</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_TestProps</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_TestWeather_TeamWildMonster</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_TestWeather_TeamMonster</t>
+  </si>
+  <si>
+    <t>GameGlobalBuff_TestWeather_TeamGlobal</t>
+  </si>
+  <si>
+    <t>TriggerImmediatelyNoParam;GamePlay_Status_GameWaitForStart</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -747,60 +832,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38:XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="45.77734375" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="45.75" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="40.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="L1"/>
+      <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -809,10 +892,8 @@
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -822,20 +903,20 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -844,39 +925,37 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -885,27 +964,25 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="L4"/>
+      <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -914,45 +991,43 @@
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
@@ -961,468 +1036,397 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
-        <v>GameGlobalBuff_1</v>
-      </c>
-      <c r="J6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <f t="shared" ref="D7:D23" si="0">B7&amp;"_"&amp;C7</f>
-        <v>GameGlobalBuff_2</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_3</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_4</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_5</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_6</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_7</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_8</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_9</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_10</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_11</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_12</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_13</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_14</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_15</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_16</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_17</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>18</v>
-      </c>
-      <c r="D23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>GameGlobalBuff_18</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="10" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="10" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="10" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="10" t="s">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="10" t="s">
+      <c r="H33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
